--- a/data/test_fictive_data1.xlsx
+++ b/data/test_fictive_data1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IRD\5-Projets_&amp;_themes\1-RECOLAPE\3-Productions\WP5\T5.1_5.2\3-Package\dqassess\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IRD\4-Developpement\1-R\6-Packages\dqassess\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -897,7 +897,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1012,32 +1012,32 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
         <v>2019</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4">
+      <c r="E4" s="2">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2">
         <f>0/-29</f>
         <v>0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
         <v>11</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J4">
@@ -1045,32 +1045,32 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>2018</v>
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2019</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5">
-        <f>9/-15</f>
-        <v>-0.6</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2">
+        <f>0/-29</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H5" t="s">
         <v>11</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J5">
@@ -1129,8 +1129,8 @@
         <f>9/-21</f>
         <v>-0.42857142857142855</v>
       </c>
-      <c r="G7" t="s">
-        <v>25</v>
+      <c r="G7" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="H7" t="s">
         <v>11</v>
@@ -1340,5 +1340,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/test_fictive_data1.xlsx
+++ b/data/test_fictive_data1.xlsx
@@ -443,7 +443,7 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,7 +515,7 @@
       <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="2">
@@ -547,7 +547,7 @@
       <c r="G3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I3">
@@ -564,7 +564,7 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>2019</v>
       </c>
       <c r="D4">
@@ -580,7 +580,7 @@
       <c r="G4" t="s">
         <v>11</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I4">
@@ -613,7 +613,7 @@
       <c r="G5" t="s">
         <v>11</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I5">
@@ -645,7 +645,7 @@
       <c r="G6" t="s">
         <v>11</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I6">
@@ -678,7 +678,7 @@
       <c r="G7" t="s">
         <v>11</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I7">
@@ -711,7 +711,7 @@
       <c r="G8" t="s">
         <v>11</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I8" s="2">
@@ -743,7 +743,7 @@
       <c r="G9" t="s">
         <v>11</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I9">
@@ -776,7 +776,7 @@
       <c r="G10" t="s">
         <v>11</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I10">
@@ -809,7 +809,7 @@
       <c r="G11" t="s">
         <v>11</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I11">
@@ -842,7 +842,7 @@
       <c r="G12" t="s">
         <v>11</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I12">
@@ -874,7 +874,7 @@
       <c r="G13" t="s">
         <v>11</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I13">
@@ -889,6 +889,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -897,7 +898,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,7 +973,7 @@
       <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J2">
@@ -1004,7 +1005,7 @@
       <c r="H3" t="s">
         <v>11</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J3">
@@ -1102,7 +1103,7 @@
       <c r="H6" t="s">
         <v>11</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J6">
@@ -1135,7 +1136,7 @@
       <c r="H7" t="s">
         <v>11</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J7">
@@ -1168,7 +1169,7 @@
       <c r="H8" t="s">
         <v>11</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J8" s="2">
@@ -1200,7 +1201,7 @@
       <c r="H9" t="s">
         <v>11</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J9">
@@ -1233,7 +1234,7 @@
       <c r="H10" t="s">
         <v>11</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J10">
@@ -1266,7 +1267,7 @@
       <c r="H11" t="s">
         <v>11</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J11" t="s">
@@ -1299,7 +1300,7 @@
       <c r="H12" t="s">
         <v>11</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J12">
@@ -1331,7 +1332,7 @@
       <c r="H13" t="s">
         <v>11</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J13" t="s">
